--- a/kangaroo.data.xlsx
+++ b/kangaroo.data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="AT" sheetId="1" r:id="rId1"/>
@@ -507,7 +507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -4140,13 +4140,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:K15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" customWidth="1"/>
     <col min="10" max="10" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
